--- a/PM/今日头条Featurelist.xlsx
+++ b/PM/今日头条Featurelist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23505" windowHeight="11055"/>
+    <workbookView windowWidth="19665" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="需求清单" sheetId="1" r:id="rId1"/>
@@ -468,6 +468,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>将页面顶部的推荐头条号的头像大小改小；</t>
     </r>
     <r>
@@ -661,9 +667,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
@@ -772,6 +778,96 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,17 +880,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -806,59 +903,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -867,44 +911,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -936,7 +942,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -963,7 +969,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.25"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,169 +1125,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,17 +1250,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1269,17 +1265,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1300,6 +1285,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1315,20 +1309,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1347,16 +1338,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1365,137 +1365,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1608,9 +1608,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1643,12 +1640,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2094,7 +2085,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="50.1" customHeight="1"/>
@@ -2211,7 +2202,7 @@
       <c r="H5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="69" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="18" t="s">
@@ -2238,7 +2229,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="72"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
     </row>
@@ -2327,7 +2318,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="73"/>
+      <c r="I11" s="70"/>
       <c r="J11" s="32"/>
       <c r="K11" s="23"/>
     </row>
@@ -2340,7 +2331,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
-      <c r="I12" s="73"/>
+      <c r="I12" s="70"/>
       <c r="J12" s="32"/>
       <c r="K12" s="23"/>
     </row>
@@ -2359,7 +2350,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
-      <c r="I13" s="73"/>
+      <c r="I13" s="70"/>
       <c r="J13" s="32"/>
       <c r="K13" s="23"/>
     </row>
@@ -2376,14 +2367,14 @@
       <c r="F14" s="23"/>
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
-      <c r="I14" s="73"/>
+      <c r="I14" s="70"/>
       <c r="J14" s="32"/>
       <c r="K14" s="23"/>
     </row>
     <row r="15" s="5" customFormat="1" customHeight="1" spans="1:11">
       <c r="A15" s="36"/>
       <c r="B15" s="37"/>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="35" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="34" t="s">
@@ -2393,16 +2384,16 @@
         <v>44</v>
       </c>
       <c r="F15" s="26"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="39"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="26"/>
     </row>
     <row r="16" s="5" customFormat="1" customHeight="1" spans="1:11">
       <c r="A16" s="36"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="34" t="s">
         <v>45</v>
       </c>
@@ -2410,21 +2401,21 @@
         <v>46</v>
       </c>
       <c r="F16" s="26"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="39"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="38"/>
       <c r="K16" s="26"/>
     </row>
     <row r="17" s="4" customFormat="1" customHeight="1" spans="1:11">
       <c r="A17" s="28"/>
-      <c r="C17" s="41"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="31"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
-      <c r="I17" s="73"/>
+      <c r="I17" s="70"/>
       <c r="J17" s="32"/>
       <c r="K17" s="23"/>
     </row>
@@ -2433,86 +2424,86 @@
       <c r="B18" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="42" t="s">
         <v>48</v>
       </c>
       <c r="F18" s="17"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="44"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="43"/>
       <c r="K18" s="26"/>
     </row>
     <row r="19" s="5" customFormat="1" customHeight="1" spans="1:11">
       <c r="A19" s="36"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="43" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="42" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="17"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
       <c r="K19" s="17"/>
     </row>
     <row r="20" s="5" customFormat="1" ht="55" customHeight="1" spans="1:11">
       <c r="A20" s="36"/>
       <c r="B20" s="37"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="43" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="42" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="17"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
       <c r="K20" s="17"/>
     </row>
     <row r="21" s="5" customFormat="1" customHeight="1" spans="1:11">
       <c r="A21" s="36"/>
       <c r="B21" s="37"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="43" t="s">
+      <c r="C21" s="44"/>
+      <c r="D21" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="42" t="s">
         <v>54</v>
       </c>
       <c r="F21" s="17"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
       <c r="K21" s="17"/>
     </row>
     <row r="22" s="5" customFormat="1" customHeight="1" spans="1:11">
       <c r="A22" s="36"/>
       <c r="B22" s="37"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="43" t="s">
+      <c r="C22" s="44"/>
+      <c r="D22" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="42" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="17"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
       <c r="K22" s="17"/>
     </row>
     <row r="23" s="4" customFormat="1" customHeight="1" spans="1:11">
@@ -2520,24 +2511,24 @@
       <c r="B23" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="43" t="s">
+      <c r="C23" s="44"/>
+      <c r="D23" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="42" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="18"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
       <c r="K23" s="18"/>
     </row>
     <row r="24" s="4" customFormat="1" ht="150" customHeight="1" spans="1:11">
       <c r="A24" s="28"/>
       <c r="B24" s="37"/>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="44" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -2547,16 +2538,16 @@
         <v>61</v>
       </c>
       <c r="F24" s="17"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="46"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="45"/>
       <c r="K24" s="18"/>
     </row>
     <row r="25" s="6" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="38"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="17" t="s">
         <v>62</v>
       </c>
@@ -2566,18 +2557,18 @@
       <c r="F25" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="54"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="51"/>
     </row>
     <row r="26" s="6" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="17" t="s">
         <v>66</v>
       </c>
@@ -2585,16 +2576,16 @@
         <v>67</v>
       </c>
       <c r="F26" s="17"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="54"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="51"/>
     </row>
     <row r="27" s="6" customFormat="1" ht="75" customHeight="1" spans="1:11">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="38" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="35" t="s">
         <v>68</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -2606,16 +2597,16 @@
       <c r="F27" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="54"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="51"/>
     </row>
     <row r="28" s="6" customFormat="1" ht="50" customHeight="1" spans="1:11">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="38"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="17" t="s">
         <v>72</v>
       </c>
@@ -2623,16 +2614,16 @@
         <v>73</v>
       </c>
       <c r="F28" s="17"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="54"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="51"/>
     </row>
     <row r="29" s="6" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="38"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="17" t="s">
         <v>74</v>
       </c>
@@ -2642,16 +2633,16 @@
       <c r="F29" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="54"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="51"/>
     </row>
     <row r="30" s="6" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="38"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="17" t="s">
         <v>77</v>
       </c>
@@ -2659,200 +2650,200 @@
         <v>78</v>
       </c>
       <c r="F30" s="17"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="54"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="51"/>
     </row>
     <row r="31" s="6" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51" t="s">
+      <c r="C31" s="35"/>
+      <c r="D31" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="51"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="54"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="51"/>
     </row>
     <row r="32" s="6" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A32" s="47"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="54"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="51"/>
     </row>
     <row r="33" s="5" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A33" s="47"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="55"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="17" t="s">
         <v>82</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
       <c r="K33" s="17"/>
     </row>
     <row r="34" s="5" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A34" s="47"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="36"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="57" t="s">
+      <c r="C34" s="53"/>
+      <c r="D34" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="57" t="s">
+      <c r="E34" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="57"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="57"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="54"/>
     </row>
     <row r="35" s="6" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A35" s="47"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="61"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="58"/>
     </row>
     <row r="36" s="6" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A36" s="47"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57" t="s">
+      <c r="A36" s="46"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="61"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="61"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="58"/>
     </row>
     <row r="37" s="6" customFormat="1" ht="71" customHeight="1" spans="1:11">
-      <c r="A37" s="47"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57" t="s">
+      <c r="A37" s="46"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="57" t="s">
+      <c r="E37" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="61"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="61"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="58"/>
     </row>
     <row r="38" s="6" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A38" s="47"/>
-      <c r="B38" s="64" t="s">
+      <c r="A38" s="46"/>
+      <c r="B38" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="56"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="65" t="s">
+      <c r="E38" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="54"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="77"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="74"/>
     </row>
     <row r="39" s="6" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A39" s="47"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="56"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="20" t="s">
         <v>92</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="54"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="51"/>
     </row>
     <row r="40" s="6" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="66"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="63"/>
     </row>
     <row r="41" s="6" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="71"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="68"/>
     </row>
     <row r="42" s="6" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="71"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="68"/>
     </row>
   </sheetData>
   <sortState ref="A4:P27">
